--- a/Data/EC/NIT-9015898342.xlsx
+++ b/Data/EC/NIT-9015898342.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5F7E2DA-F5C8-430C-A692-35BC207EBD21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1AFA5607-B3CF-4AB0-A306-B52E4DA2A5CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{46EEA0C6-836E-44E8-801E-47E6EEA0E6F8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6A50E6F5-5C49-4CB2-9ACD-74E5DA68C36F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="53">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,112 +71,97 @@
     <t>YILSON MANUEL ESPITIA DIAZ</t>
   </si>
   <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
     <t>2408</t>
   </si>
   <si>
+    <t>1003344649</t>
+  </si>
+  <si>
+    <t>EILYN PAOLA MEZQUIDA DORIA</t>
+  </si>
+  <si>
+    <t>1127586747</t>
+  </si>
+  <si>
+    <t>INGRID DEL ROSARIO ZUÝIGA MAYORAL</t>
+  </si>
+  <si>
+    <t>1047366674</t>
+  </si>
+  <si>
+    <t>ELLIS MILETHE BLANCO ALGARIN</t>
+  </si>
+  <si>
     <t>PPT</t>
   </si>
   <si>
+    <t>1208999</t>
+  </si>
+  <si>
+    <t>PEDRO MANUEL GARCIA ROBLES</t>
+  </si>
+  <si>
+    <t>30772467</t>
+  </si>
+  <si>
+    <t>BENILDA DEL CARMEN CARDONA ARELLANO</t>
+  </si>
+  <si>
+    <t>50997620</t>
+  </si>
+  <si>
+    <t>MARELBY ISABEL ARGUMEDO SALGADO</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
     <t>6497023</t>
   </si>
   <si>
     <t>ISABEL JOSEFINA SORET MORAN</t>
   </si>
   <si>
-    <t>30772467</t>
-  </si>
-  <si>
-    <t>BENILDA DEL CARMEN CARDONA ARELLANO</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>1047425845</t>
-  </si>
-  <si>
-    <t>CRISTINA ISABEL RAMOS RODELO</t>
-  </si>
-  <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>1047387759</t>
-  </si>
-  <si>
-    <t>SONIA ESTHER CONEO RIOS</t>
-  </si>
-  <si>
-    <t>23004394</t>
-  </si>
-  <si>
-    <t>ANA JOSEFA DE LA HOZ MARIN</t>
-  </si>
-  <si>
-    <t>1070821218</t>
-  </si>
-  <si>
-    <t>SIRLEY HERNANDEZ PRIMER</t>
-  </si>
-  <si>
-    <t>9148561</t>
-  </si>
-  <si>
-    <t>EDINSON DE JESUS CASTELLANOS MERCADO</t>
-  </si>
-  <si>
-    <t>1050945794</t>
-  </si>
-  <si>
-    <t>JEYSON DE JESUS CONTRERAS JIMENEZ</t>
-  </si>
-  <si>
-    <t>32907045</t>
-  </si>
-  <si>
-    <t>YOSBELY ESTER RAMOS RODELO</t>
-  </si>
-  <si>
-    <t>1003344649</t>
-  </si>
-  <si>
-    <t>EILYN PAOLA MEZQUIDA DORIA</t>
-  </si>
-  <si>
-    <t>45539395</t>
-  </si>
-  <si>
-    <t>ERIKA PATRICIA VALDELAMAR RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>1143341118</t>
-  </si>
-  <si>
-    <t>LAURA MARCELA VILLADIEGO QUIÑONEZ</t>
+    <t>1010122763</t>
+  </si>
+  <si>
+    <t>CAMILO ANDRES VILLADIEGO QUIÑONES</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -590,7 +575,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBC5FF0B-92D1-DD9F-989E-5DB8C936B184}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F152433-D62F-E5D4-A32D-E4C8FEC858BD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -941,8 +926,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACC94B62-8138-47B2-9C8D-78D74BA7E34C}">
-  <dimension ref="B2:J55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6925C60D-C8FC-488C-8921-5D36CFCC3D4D}">
+  <dimension ref="B2:J61"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -953,7 +938,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.36328125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -966,7 +951,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1011,7 +996,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1043,12 +1028,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>1828340</v>
+        <v>2133020</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1059,17 +1044,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C13" s="5">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F13" s="5">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1096,13 +1081,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1130,16 +1115,16 @@
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="F17" s="18">
         <v>52000</v>
@@ -1156,13 +1141,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F18" s="18">
         <v>52000</v>
@@ -1179,13 +1164,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
         <v>52000</v>
@@ -1208,7 +1193,7 @@
         <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F20" s="18">
         <v>52000</v>
@@ -1225,13 +1210,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>16</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>18</v>
       </c>
       <c r="F21" s="18">
         <v>52000</v>
@@ -1254,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
         <v>52000</v>
@@ -1271,13 +1256,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
         <v>52000</v>
@@ -1317,10 +1302,10 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
         <v>20</v>
@@ -1346,7 +1331,7 @@
         <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
         <v>52000</v>
@@ -1369,7 +1354,7 @@
         <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
         <v>52000</v>
@@ -1386,19 +1371,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F28" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G28" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1409,19 +1394,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F29" s="18">
-        <v>52000</v>
+        <v>61880</v>
       </c>
       <c r="G29" s="18">
-        <v>1300000</v>
+        <v>1547000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1432,13 +1417,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F30" s="18">
         <v>52000</v>
@@ -1455,13 +1440,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F31" s="18">
         <v>52000</v>
@@ -1478,13 +1463,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F32" s="18">
         <v>52000</v>
@@ -1501,13 +1486,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D33" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" s="16" t="s">
         <v>16</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>24</v>
       </c>
       <c r="F33" s="18">
         <v>52000</v>
@@ -1521,16 +1506,16 @@
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F34" s="18">
         <v>52000</v>
@@ -1544,16 +1529,16 @@
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F35" s="18">
         <v>52000</v>
@@ -1570,13 +1555,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F36" s="18">
         <v>52000</v>
@@ -1593,19 +1578,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="F37" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G37" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1613,19 +1598,19 @@
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E38" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D38" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>28</v>
-      </c>
       <c r="F38" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G38" s="18">
         <v>1300000</v>
@@ -1639,19 +1624,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="F39" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G39" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1662,13 +1647,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="F40" s="18">
         <v>52000</v>
@@ -1685,19 +1670,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="F41" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G41" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1708,19 +1693,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D42" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D42" s="17" t="s">
-        <v>34</v>
-      </c>
       <c r="E42" s="16" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F42" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G42" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1731,13 +1716,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F43" s="18">
         <v>52000</v>
@@ -1754,19 +1739,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F44" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G44" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1777,19 +1762,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F45" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G45" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1800,19 +1785,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F46" s="18">
-        <v>62940</v>
+        <v>52000</v>
       </c>
       <c r="G46" s="18">
-        <v>1573500</v>
+        <v>1300000</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1823,19 +1808,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F47" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G47" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1846,75 +1831,213 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F48" s="18">
-        <v>56940</v>
+        <v>46400</v>
       </c>
       <c r="G48" s="18">
-        <v>1423500</v>
+        <v>1160000</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
       <c r="J48" s="20"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B49" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="D49" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E49" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="F49" s="24">
-        <v>56940</v>
-      </c>
-      <c r="G49" s="24">
-        <v>1423500</v>
-      </c>
-      <c r="H49" s="25"/>
-      <c r="I49" s="25"/>
-      <c r="J49" s="26"/>
+      <c r="B49" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F49" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G49" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="20"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B50" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F50" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G50" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="20"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B51" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" s="18">
+        <v>61880</v>
+      </c>
+      <c r="G51" s="18">
+        <v>1547000</v>
+      </c>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="20"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B52" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E52" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" s="18">
+        <v>61880</v>
+      </c>
+      <c r="G52" s="18">
+        <v>1547000</v>
+      </c>
+      <c r="H52" s="19"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="20"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B53" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E53" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" s="18">
+        <v>61880</v>
+      </c>
+      <c r="G53" s="18">
+        <v>1547000</v>
+      </c>
+      <c r="H53" s="19"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="20"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B54" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="C54" s="32"/>
-      <c r="H54" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
+      <c r="B54" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E54" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F54" s="18">
+        <v>61880</v>
+      </c>
+      <c r="G54" s="18">
+        <v>1547000</v>
+      </c>
+      <c r="H54" s="19"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="20"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B55" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="C55" s="32"/>
-      <c r="H55" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
+      <c r="B55" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D55" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E55" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F55" s="24">
+        <v>61880</v>
+      </c>
+      <c r="G55" s="24">
+        <v>1547000</v>
+      </c>
+      <c r="H55" s="25"/>
+      <c r="I55" s="25"/>
+      <c r="J55" s="26"/>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B60" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C60" s="32"/>
+      <c r="H60" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B61" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C61" s="32"/>
+      <c r="H61" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="H61:J61"/>
+    <mergeCell ref="H60:J60"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9015898342.xlsx
+++ b/Data/EC/NIT-9015898342.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1AFA5607-B3CF-4AB0-A306-B52E4DA2A5CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D64F5F40-2E0F-499A-8C7E-905B281C0CA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6A50E6F5-5C49-4CB2-9ACD-74E5DA68C36F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9AC3DD55-1615-4DD2-9DC8-13B7493445DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="40">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,97 +71,58 @@
     <t>YILSON MANUEL ESPITIA DIAZ</t>
   </si>
   <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>30772467</t>
+  </si>
+  <si>
+    <t>BENILDA DEL CARMEN CARDONA ARELLANO</t>
+  </si>
+  <si>
+    <t>PPT</t>
+  </si>
+  <si>
+    <t>6497023</t>
+  </si>
+  <si>
+    <t>ISABEL JOSEFINA SORET MORAN</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>1003344649</t>
-  </si>
-  <si>
-    <t>EILYN PAOLA MEZQUIDA DORIA</t>
-  </si>
-  <si>
-    <t>1127586747</t>
-  </si>
-  <si>
-    <t>INGRID DEL ROSARIO ZUÝIGA MAYORAL</t>
-  </si>
-  <si>
-    <t>1047366674</t>
-  </si>
-  <si>
-    <t>ELLIS MILETHE BLANCO ALGARIN</t>
-  </si>
-  <si>
-    <t>PPT</t>
-  </si>
-  <si>
-    <t>1208999</t>
-  </si>
-  <si>
-    <t>PEDRO MANUEL GARCIA ROBLES</t>
-  </si>
-  <si>
-    <t>30772467</t>
-  </si>
-  <si>
-    <t>BENILDA DEL CARMEN CARDONA ARELLANO</t>
-  </si>
-  <si>
-    <t>50997620</t>
-  </si>
-  <si>
-    <t>MARELBY ISABEL ARGUMEDO SALGADO</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>6497023</t>
-  </si>
-  <si>
-    <t>ISABEL JOSEFINA SORET MORAN</t>
-  </si>
-  <si>
-    <t>1010122763</t>
-  </si>
-  <si>
-    <t>CAMILO ANDRES VILLADIEGO QUIÑONES</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -260,7 +221,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -273,9 +236,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -475,23 +436,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -519,10 +480,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -575,7 +536,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F152433-D62F-E5D4-A32D-E4C8FEC858BD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37ADD76B-DAB9-09D9-2FD0-6EF2422F6E45}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -926,8 +887,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6925C60D-C8FC-488C-8921-5D36CFCC3D4D}">
-  <dimension ref="B2:J61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E3A034A-63E4-4FD6-B5D0-C8B7040C4E88}">
+  <dimension ref="B2:J48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -951,7 +912,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -996,7 +957,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1028,12 +989,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>2133020</v>
+        <v>1404000</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1044,17 +1005,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C13" s="5">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="F13" s="5">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1081,13 +1042,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1118,13 +1079,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
         <v>52000</v>
@@ -1138,22 +1099,22 @@
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18">
         <v>52000</v>
       </c>
       <c r="G18" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1170,7 +1131,7 @@
         <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F19" s="18">
         <v>52000</v>
@@ -1187,13 +1148,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F20" s="18">
         <v>52000</v>
@@ -1216,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F21" s="18">
         <v>52000</v>
@@ -1233,13 +1194,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F22" s="18">
         <v>52000</v>
@@ -1262,7 +1223,7 @@
         <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F23" s="18">
         <v>52000</v>
@@ -1279,10 +1240,10 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E24" s="16" t="s">
         <v>19</v>
@@ -1325,13 +1286,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F26" s="18">
         <v>52000</v>
@@ -1354,7 +1315,7 @@
         <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F27" s="18">
         <v>52000</v>
@@ -1371,19 +1332,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F28" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G28" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1394,19 +1355,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F29" s="18">
-        <v>61880</v>
+        <v>52000</v>
       </c>
       <c r="G29" s="18">
-        <v>1547000</v>
+        <v>1300000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1417,13 +1378,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F30" s="18">
         <v>52000</v>
@@ -1440,13 +1401,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F31" s="18">
         <v>52000</v>
@@ -1463,13 +1424,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F32" s="18">
         <v>52000</v>
@@ -1486,13 +1447,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F33" s="18">
         <v>52000</v>
@@ -1506,16 +1467,16 @@
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F34" s="18">
         <v>52000</v>
@@ -1529,16 +1490,16 @@
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F35" s="18">
         <v>52000</v>
@@ -1555,13 +1516,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F36" s="18">
         <v>52000</v>
@@ -1578,13 +1539,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F37" s="18">
         <v>52000</v>
@@ -1601,13 +1562,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F38" s="18">
         <v>52000</v>
@@ -1624,13 +1585,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F39" s="18">
         <v>52000</v>
@@ -1647,13 +1608,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F40" s="18">
         <v>52000</v>
@@ -1670,13 +1631,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F41" s="18">
         <v>52000</v>
@@ -1689,355 +1650,56 @@
       <c r="J41" s="20"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B42" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D42" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F42" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G42" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="20"/>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B43" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D43" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E43" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F43" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G43" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="20"/>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B44" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D44" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F44" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G44" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="20"/>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B45" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C45" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D45" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E45" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F45" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G45" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="20"/>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B46" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C46" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D46" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E46" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F46" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G46" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="20"/>
+      <c r="B42" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F42" s="24">
+        <v>52000</v>
+      </c>
+      <c r="G42" s="24">
+        <v>1300000</v>
+      </c>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="26"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B47" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C47" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D47" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E47" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F47" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G47" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="20"/>
+      <c r="B47" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C47" s="32"/>
+      <c r="H47" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B48" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D48" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E48" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F48" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G48" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="20"/>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B49" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D49" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E49" s="16" t="s">
+      <c r="B48" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="F49" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G49" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="20"/>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B50" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C50" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D50" s="17" t="s">
+      <c r="C48" s="32"/>
+      <c r="H48" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E50" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F50" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G50" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="20"/>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B51" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C51" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D51" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E51" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F51" s="18">
-        <v>61880</v>
-      </c>
-      <c r="G51" s="18">
-        <v>1547000</v>
-      </c>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="20"/>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B52" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C52" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D52" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E52" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F52" s="18">
-        <v>61880</v>
-      </c>
-      <c r="G52" s="18">
-        <v>1547000</v>
-      </c>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="20"/>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B53" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C53" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D53" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E53" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F53" s="18">
-        <v>61880</v>
-      </c>
-      <c r="G53" s="18">
-        <v>1547000</v>
-      </c>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="20"/>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B54" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C54" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D54" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E54" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F54" s="18">
-        <v>61880</v>
-      </c>
-      <c r="G54" s="18">
-        <v>1547000</v>
-      </c>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="20"/>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B55" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C55" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="D55" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E55" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F55" s="24">
-        <v>61880</v>
-      </c>
-      <c r="G55" s="24">
-        <v>1547000</v>
-      </c>
-      <c r="H55" s="25"/>
-      <c r="I55" s="25"/>
-      <c r="J55" s="26"/>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B60" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="C60" s="32"/>
-      <c r="H60" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B61" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="C61" s="32"/>
-      <c r="H61" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="H61:J61"/>
-    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="H47:J47"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
